--- a/chapters/ch08-Transportation/datasets/LastMile.xlsx
+++ b/chapters/ch08-Transportation/datasets/LastMile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56821C51-994E-C24B-8AD6-86ACC6BFC0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57D6DB0-49E9-8B44-ADF0-F6EFA7F582ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{040D7232-F9A0-2242-AEB4-3F2E6CD42681}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Part of journey</t>
   </si>
   <si>
-    <t>Last mile delivery</t>
-  </si>
-  <si>
     <t>Line haul</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>Last-mile delivery</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -416,12 +416,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>53</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>37</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
